--- a/AZ WEIGHT MASTER.xlsx
+++ b/AZ WEIGHT MASTER.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JK FENNER\p\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{322F5259-4782-4FED-9111-F54CEA2D9251}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{528412EF-B0BB-4441-941D-45C4547FFEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5671,7 +5671,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5973,8 +5984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F927"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="194" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A587" zoomScale="109" workbookViewId="0">
+      <selection activeCell="E908" sqref="E908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8935,7 +8946,7 @@
         <v>1.24</v>
       </c>
       <c r="D141" s="2">
-        <v>-0.10000000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="E141" s="2">
         <v>2</v>
@@ -9376,7 +9387,7 @@
         <v>1.27</v>
       </c>
       <c r="D162" s="2">
-        <v>-0.16999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="E162" s="2">
         <v>7</v>
@@ -10153,7 +10164,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D199" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E199" s="2">
         <v>10</v>
@@ -10195,7 +10206,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D201" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E201" s="2">
         <v>10</v>
@@ -10321,7 +10332,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D207" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E207" s="2">
         <v>10</v>
@@ -11539,7 +11550,7 @@
         <v>1.34</v>
       </c>
       <c r="D265" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E265" s="2">
         <v>5</v>
@@ -11896,7 +11907,7 @@
         <v>1.34</v>
       </c>
       <c r="D282" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E282" s="2">
         <v>5</v>
@@ -12085,7 +12096,7 @@
         <v>1.49</v>
       </c>
       <c r="D291" s="2">
-        <v>-7.999999999999996E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E291" s="2">
         <v>11</v>
@@ -12127,7 +12138,7 @@
         <v>1.34</v>
       </c>
       <c r="D293" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E293" s="2">
         <v>5</v>
@@ -12316,7 +12327,7 @@
         <v>1.27</v>
       </c>
       <c r="D302" s="2">
-        <v>-0.16999999999999998</v>
+        <v>0.17</v>
       </c>
       <c r="E302" s="2">
         <v>7</v>
@@ -12799,7 +12810,7 @@
         <v>1.34</v>
       </c>
       <c r="D325" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E325" s="2">
         <v>5</v>
@@ -12820,7 +12831,7 @@
         <v>1.34</v>
       </c>
       <c r="D326" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E326" s="2">
         <v>5</v>
@@ -13618,7 +13629,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D364" s="2">
-        <v>-0.39</v>
+        <v>0.39</v>
       </c>
       <c r="E364" s="2">
         <v>6</v>
@@ -13702,7 +13713,7 @@
         <v>1.34</v>
       </c>
       <c r="D368" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E368" s="2">
         <v>5</v>
@@ -13849,7 +13860,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D375" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E375" s="2">
         <v>10</v>
@@ -14080,7 +14091,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D386" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E386" s="2">
         <v>10</v>
@@ -14689,7 +14700,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D415" s="2">
-        <v>-0.39</v>
+        <v>0.39</v>
       </c>
       <c r="E415" s="2">
         <v>6</v>
@@ -14752,7 +14763,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D418" s="2">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
       <c r="E418" s="2">
         <v>14</v>
@@ -14773,7 +14784,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D419" s="2">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
       <c r="E419" s="2">
         <v>14</v>
@@ -14878,7 +14889,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D424" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E424" s="2">
         <v>10</v>
@@ -15676,7 +15687,7 @@
         <v>1.34</v>
       </c>
       <c r="D462" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E462" s="2">
         <v>5</v>
@@ -15781,7 +15792,7 @@
         <v>1.34</v>
       </c>
       <c r="D467" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E467" s="2">
         <v>5</v>
@@ -16054,7 +16065,7 @@
         <v>1.34</v>
       </c>
       <c r="D480" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E480" s="2">
         <v>5</v>
@@ -16075,7 +16086,7 @@
         <v>1.34</v>
       </c>
       <c r="D481" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E481" s="2">
         <v>5</v>
@@ -16222,7 +16233,7 @@
         <v>1.58</v>
       </c>
       <c r="D488" s="2">
-        <v>-0.22000000000000008</v>
+        <v>0.22</v>
       </c>
       <c r="E488" s="2">
         <v>12</v>
@@ -17020,7 +17031,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D526" s="2">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
       <c r="E526" s="2">
         <v>14</v>
@@ -17692,7 +17703,7 @@
         <v>1.49</v>
       </c>
       <c r="D558" s="2">
-        <v>-7.999999999999996E-2</v>
+        <v>0.08</v>
       </c>
       <c r="E558" s="2">
         <v>11</v>
@@ -17734,7 +17745,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D560" s="2">
-        <v>-0.39</v>
+        <v>0.39</v>
       </c>
       <c r="E560" s="2">
         <v>6</v>
@@ -18091,7 +18102,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D577" s="2">
-        <v>-0.39</v>
+        <v>0.39</v>
       </c>
       <c r="E577" s="2">
         <v>6</v>
@@ -18280,7 +18291,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D586" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E586" s="2">
         <v>10</v>
@@ -18721,7 +18732,7 @@
         <v>1.41</v>
       </c>
       <c r="D607" s="2">
-        <v>-0.21000000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="E607" s="2">
         <v>4</v>
@@ -18889,7 +18900,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D615" s="2">
-        <v>-0.39</v>
+        <v>0.39</v>
       </c>
       <c r="E615" s="2">
         <v>6</v>
@@ -18931,7 +18942,7 @@
         <v>1.76</v>
       </c>
       <c r="D617" s="2">
-        <v>-0.52</v>
+        <v>0.52</v>
       </c>
       <c r="E617" s="2">
         <v>13</v>
@@ -19099,7 +19110,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D625" s="2">
-        <v>-0.39</v>
+        <v>0.39</v>
       </c>
       <c r="E625" s="2">
         <v>6</v>
@@ -19120,7 +19131,7 @@
         <v>1.76</v>
       </c>
       <c r="D626" s="2">
-        <v>-0.52</v>
+        <v>0.52</v>
       </c>
       <c r="E626" s="2">
         <v>13</v>
@@ -19372,7 +19383,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D638" s="2">
-        <v>-0.39</v>
+        <v>0.39</v>
       </c>
       <c r="E638" s="2">
         <v>6</v>
@@ -19435,7 +19446,7 @@
         <v>1.17</v>
       </c>
       <c r="D641" s="2">
-        <v>-0.59000000000000008</v>
+        <v>0.59</v>
       </c>
       <c r="E641" s="2">
         <v>17</v>
@@ -19498,7 +19509,7 @@
         <v>1.17</v>
       </c>
       <c r="D644" s="2">
-        <v>-0.59000000000000008</v>
+        <v>0.59</v>
       </c>
       <c r="E644" s="2">
         <v>17</v>
@@ -19666,7 +19677,7 @@
         <v>1.17</v>
       </c>
       <c r="D652" s="2">
-        <v>-0.59000000000000008</v>
+        <v>0.59</v>
       </c>
       <c r="E652" s="2">
         <v>17</v>
@@ -19771,7 +19782,7 @@
         <v>1.58</v>
       </c>
       <c r="D657" s="2">
-        <v>-0.22000000000000008</v>
+        <v>0.22</v>
       </c>
       <c r="E657" s="2">
         <v>12</v>
@@ -19834,7 +19845,7 @@
         <v>1.34</v>
       </c>
       <c r="D660" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E660" s="2">
         <v>5</v>
@@ -19855,7 +19866,7 @@
         <v>1.41</v>
       </c>
       <c r="D661" s="2">
-        <v>-0.21000000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="E661" s="2">
         <v>4</v>
@@ -20422,7 +20433,7 @@
         <v>1.76</v>
       </c>
       <c r="D688" s="2">
-        <v>-0.52</v>
+        <v>0.52</v>
       </c>
       <c r="E688" s="2">
         <v>13</v>
@@ -20695,7 +20706,7 @@
         <v>1.41</v>
       </c>
       <c r="D701" s="2">
-        <v>-0.21000000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="E701" s="2">
         <v>4</v>
@@ -20989,7 +21000,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D715" s="2">
-        <v>-0.39</v>
+        <v>0.39</v>
       </c>
       <c r="E715" s="2">
         <v>6</v>
@@ -21283,7 +21294,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D729" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E729" s="2">
         <v>10</v>
@@ -21430,7 +21441,7 @@
         <v>1.41</v>
       </c>
       <c r="D736" s="2">
-        <v>-0.21000000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="E736" s="2">
         <v>4</v>
@@ -21787,7 +21798,7 @@
         <v>1.17</v>
       </c>
       <c r="D753" s="2">
-        <v>-0.59000000000000008</v>
+        <v>0.59</v>
       </c>
       <c r="E753" s="2">
         <v>17</v>
@@ -21955,7 +21966,7 @@
         <v>1.17</v>
       </c>
       <c r="D761" s="2">
-        <v>-0.59000000000000008</v>
+        <v>0.59</v>
       </c>
       <c r="E761" s="2">
         <v>17</v>
@@ -21997,7 +22008,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D763" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E763" s="2">
         <v>10</v>
@@ -22018,7 +22029,7 @@
         <v>1.76</v>
       </c>
       <c r="D764" s="2">
-        <v>-0.52</v>
+        <v>0.52</v>
       </c>
       <c r="E764" s="2">
         <v>13</v>
@@ -22039,7 +22050,7 @@
         <v>1.76</v>
       </c>
       <c r="D765" s="2">
-        <v>-0.52</v>
+        <v>0.52</v>
       </c>
       <c r="E765" s="2">
         <v>13</v>
@@ -22270,7 +22281,7 @@
         <v>1.76</v>
       </c>
       <c r="D776" s="2">
-        <v>-0.52</v>
+        <v>0.52</v>
       </c>
       <c r="E776" s="2">
         <v>13</v>
@@ -22774,7 +22785,7 @@
         <v>1.76</v>
       </c>
       <c r="D800" s="2">
-        <v>-0.52</v>
+        <v>0.52</v>
       </c>
       <c r="E800" s="2">
         <v>13</v>
@@ -22795,7 +22806,7 @@
         <v>1.41</v>
       </c>
       <c r="D801" s="2">
-        <v>-0.21000000000000002</v>
+        <v>0.21</v>
       </c>
       <c r="E801" s="2">
         <v>4</v>
@@ -23467,7 +23478,7 @@
         <v>1.69</v>
       </c>
       <c r="D833" s="2">
-        <v>-0.43000000000000016</v>
+        <v>0.43</v>
       </c>
       <c r="E833" s="2">
         <v>16</v>
@@ -23593,7 +23604,7 @@
         <v>1.76</v>
       </c>
       <c r="D839" s="2">
-        <v>-0.52</v>
+        <v>0.52</v>
       </c>
       <c r="E839" s="2">
         <v>13</v>
@@ -23992,7 +24003,7 @@
         <v>1.17</v>
       </c>
       <c r="D858" s="2">
-        <v>-0.59000000000000008</v>
+        <v>0.59</v>
       </c>
       <c r="E858" s="2">
         <v>17</v>
@@ -24013,7 +24024,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D859" s="2">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
       <c r="E859" s="2">
         <v>14</v>
@@ -24160,7 +24171,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D866" s="2">
-        <v>-0.35</v>
+        <v>0.35</v>
       </c>
       <c r="E866" s="2">
         <v>14</v>
@@ -24286,7 +24297,7 @@
         <v>1.5899999999999999</v>
       </c>
       <c r="D872" s="2">
-        <v>-9.000000000000008E-2</v>
+        <v>9.0000000000000094E-2</v>
       </c>
       <c r="E872" s="2">
         <v>10</v>
@@ -24475,7 +24486,7 @@
         <v>1.6099999999999999</v>
       </c>
       <c r="D881" s="2">
-        <v>-0.39</v>
+        <v>0.39</v>
       </c>
       <c r="E881" s="2">
         <v>6</v>
@@ -25000,7 +25011,7 @@
         <v>1.69</v>
       </c>
       <c r="D906" s="2">
-        <v>-0.43000000000000016</v>
+        <v>0.43</v>
       </c>
       <c r="E906" s="2">
         <v>16</v>
@@ -25105,7 +25116,7 @@
         <v>1.34</v>
       </c>
       <c r="D911" s="2">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E911" s="2">
         <v>5</v>
@@ -25210,7 +25221,7 @@
         <v>1.69</v>
       </c>
       <c r="D916" s="2">
-        <v>-0.43000000000000016</v>
+        <v>0.43</v>
       </c>
       <c r="E916" s="2">
         <v>16</v>
@@ -25452,6 +25463,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>